--- a/Auto-Eval-ASI1-r2.xlsx
+++ b/Auto-Eval-ASI1-r2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E1C23-42A6-9B4B-85CF-8F12A28212AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB2772F-3FD5-D54B-8398-229885CEB166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -57,16 +57,77 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Evaluation du niveau de compréhension:
-D- aucune notion
-C- vague notion
-AB- compréhension
-B- bonne compréhension
-TB- très bonne compréhension, capable d'expliquer aux autres</t>
+          <t xml:space="preserve">Evaluation du niveau de compréhension:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">D- aucune notion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">C- vague notion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">AB- compréhension
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B- bonne compréhension
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TB- très bonne compréhension, capable d'expliquer aux autres</t>
         </r>
       </text>
     </comment>
@@ -76,16 +137,77 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Evaluation du niveau de réalisation/mise en oeuvre:
-D   -incapacité de réaliser
-C   -mise en œuvre très simple a partir d'exemple
-AB -mise en oeuvre
-B   -mise en œuvre complète en s'aidant d'exemple
-TB  -mise en œuvre total en autonomie </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">D   -incapacité de réaliser
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">C   -mise en œuvre très simple a partir d'exemple
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">AB -mise en oeuvre
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B   -mise en œuvre complète en s'aidant d'exemple
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TB  -mise en œuvre total en autonomie </t>
         </r>
       </text>
     </comment>
@@ -313,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +469,13 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
@@ -920,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="118" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1123,8 +1252,8 @@
       <c r="G7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>53</v>
+      <c r="H7" t="s">
+        <v>48</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>53</v>
@@ -1166,8 +1295,8 @@
       <c r="G8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>53</v>
+      <c r="H8" t="s">
+        <v>49</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>53</v>
@@ -1209,8 +1338,8 @@
       <c r="G9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>53</v>
+      <c r="H9" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>53</v>
@@ -1252,7 +1381,7 @@
       <c r="G10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="18" t="s">
@@ -1295,8 +1424,8 @@
       <c r="G11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>53</v>
+      <c r="H11" t="s">
+        <v>49</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>53</v>
@@ -1338,8 +1467,8 @@
       <c r="G12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>53</v>
+      <c r="H12" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>53</v>
@@ -1381,8 +1510,8 @@
       <c r="G13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>53</v>
+      <c r="H13" t="s">
+        <v>52</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>53</v>
@@ -1424,8 +1553,8 @@
       <c r="G14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>53</v>
+      <c r="H14" t="s">
+        <v>50</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>53</v>
@@ -1467,8 +1596,8 @@
       <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>53</v>
+      <c r="H15" t="s">
+        <v>50</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>53</v>
@@ -1510,8 +1639,8 @@
       <c r="G16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>53</v>
+      <c r="H16" t="s">
+        <v>49</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>53</v>
@@ -1553,8 +1682,8 @@
       <c r="G17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>53</v>
+      <c r="H17" t="s">
+        <v>50</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>53</v>
@@ -1596,8 +1725,8 @@
       <c r="G18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>53</v>
+      <c r="H18" t="s">
+        <v>50</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>53</v>
@@ -1639,8 +1768,8 @@
       <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>53</v>
+      <c r="H19" t="s">
+        <v>52</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>53</v>
@@ -1682,8 +1811,8 @@
       <c r="G20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>53</v>
+      <c r="H20" t="s">
+        <v>52</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>53</v>
@@ -1725,8 +1854,8 @@
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>53</v>
+      <c r="H21" t="s">
+        <v>52</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>53</v>
@@ -1760,7 +1889,7 @@
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>53</v>
@@ -1768,8 +1897,8 @@
       <c r="G22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>53</v>
+      <c r="H22" t="s">
+        <v>49</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>53</v>
@@ -1811,8 +1940,8 @@
       <c r="G23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>53</v>
+      <c r="H23" t="s">
+        <v>50</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>53</v>
@@ -1854,8 +1983,8 @@
       <c r="G24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>53</v>
+      <c r="H24" t="s">
+        <v>52</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>53</v>
@@ -1897,8 +2026,8 @@
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>53</v>
+      <c r="H25" t="s">
+        <v>50</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>53</v>
@@ -1940,8 +2069,8 @@
       <c r="G26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>53</v>
+      <c r="H26" t="s">
+        <v>50</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>53</v>
@@ -2381,7 +2510,7 @@
         <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -2390,7 +2519,7 @@
         <v>53</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>53</v>
@@ -2424,7 +2553,7 @@
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -2433,7 +2562,7 @@
         <v>53</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>53</v>
@@ -2467,7 +2596,7 @@
         <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>53</v>
@@ -2476,7 +2605,7 @@
         <v>53</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>53</v>
@@ -2510,7 +2639,7 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>53</v>
@@ -2519,7 +2648,7 @@
         <v>53</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>53</v>
@@ -2553,7 +2682,7 @@
         <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -2562,7 +2691,7 @@
         <v>53</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>53</v>
@@ -2596,7 +2725,7 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
         <v>53</v>
@@ -2605,7 +2734,7 @@
         <v>53</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>53</v>
